--- a/Traduzido/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF555C6-65EF-41B8-90AA-CF77AEA296BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC499D0-5D56-4604-B34E-400413FBA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1734">
   <si>
     <t>id</t>
   </si>
@@ -4039,42 +4039,6 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t xml:space="preserve">*r  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garota Amaldiçoada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">General de Mysilia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grão-Mestre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arauto da Contenda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donzela das Bênçãos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesadelo de Melilith  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demônio da Rocha Escaldante  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mascote  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajada de Prata  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabelos Vermelhos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coelho  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Irmã Mais Velha </t>
   </si>
   <si>
@@ -4654,9 +4618,6 @@
     <t>&lt;Peão&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Dama de Companhia de Lolth  </t>
-  </si>
-  <si>
     <t>Urso Marrom</t>
   </si>
   <si>
@@ -4846,102 +4807,33 @@
     <t>Empregada</t>
   </si>
   <si>
-    <t xml:space="preserve">Maníaco Por Termas  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sereia Das Termas </t>
   </si>
   <si>
-    <t xml:space="preserve">Nobre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Coruja Majestosa</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspetor Da Fronteira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olhos Sinistros  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragão De Aço  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alquimista Errante </t>
   </si>
   <si>
-    <t xml:space="preserve">Prostituta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dançarina  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Artista </t>
   </si>
   <si>
-    <t xml:space="preserve">Civil Do Ciberdomo  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Exilado </t>
   </si>
   <si>
-    <t xml:space="preserve">Turista do Festival  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prisioneiro  </t>
-  </si>
-  <si>
     <t>Mendigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Mestre Da Arena  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cidadão  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Povo-Raposa </t>
   </si>
   <si>
-    <t xml:space="preserve">Aventureiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boneca Mecânica  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaldiçoado Pelos Deuses  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viajante Eterno  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruxa Das Sombras  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissário Da Torre De Marfim  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Apostador </t>
   </si>
   <si>
     <t>Entendedor do Destino</t>
   </si>
   <si>
-    <t xml:space="preserve">Ídolo da Corte Real  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mago Aprendiz  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comerciante Aprendiz  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bardo  </t>
-  </si>
-  <si>
     <t>Garota Inocente</t>
   </si>
   <si>
@@ -4954,295 +4846,385 @@
     <t>Mago</t>
   </si>
   <si>
-    <t xml:space="preserve">Fazendeiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mineiro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ladino </t>
   </si>
   <si>
-    <t xml:space="preserve">Magnata  </t>
-  </si>
-  <si>
     <t>Freira</t>
   </si>
   <si>
-    <t xml:space="preserve">Defensor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavaleiro Dourado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fada Fofa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Androide  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anjo Negro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exilado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raposa Branca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empregada Raposa  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Militante </t>
   </si>
   <si>
-    <t xml:space="preserve">Gato Preto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marinheiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretária  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mulherengo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mascote da Caravana  </t>
-  </si>
-  <si>
     <t>Historiador</t>
   </si>
   <si>
-    <t xml:space="preserve">Povo-Raposa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefeito Interino  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lutador </t>
   </si>
   <si>
-    <t xml:space="preserve">Aprendiz Sofredor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladrão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancião  </t>
-  </si>
-  <si>
     <t>Garota das Flores</t>
   </si>
   <si>
-    <t xml:space="preserve">Príncipe Minotauro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rei Minotauro </t>
   </si>
   <si>
-    <t xml:space="preserve">Mestre Pintor  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aprendiz de Honra </t>
   </si>
   <si>
-    <t xml:space="preserve">Sombra de Palmia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Príncipe de Palmia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torturador de Caracóis  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Capitão </t>
   </si>
   <si>
-    <t xml:space="preserve">Duque de Mysilia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sombra de Mysilia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono da Livraria  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono da Loja de Sucata  </t>
-  </si>
-  <si>
     <t>Dono da Loja de Souvenirs</t>
   </si>
   <si>
-    <t xml:space="preserve">Príncipe de Mysilia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erudito  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono da Loja de Móveis  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chefe do Orfanato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mestre da Caravana  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Informante </t>
   </si>
   <si>
-    <t xml:space="preserve">Dono da Loja Geral  </t>
-  </si>
-  <si>
     <t>Bruxa</t>
   </si>
   <si>
-    <t xml:space="preserve">Força Especial Palmiana  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono da Loja de Frutas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixeiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rei de Palmia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atendente do Cassino  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atendente da Guilda  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Curandeiro </t>
   </si>
   <si>
-    <t xml:space="preserve">Padeiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dono da Loja de Mercadorias  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Atendente da Guilda </t>
   </si>
   <si>
-    <t xml:space="preserve">Mercador de Platina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercador de Ecopo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tintureiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercador do Festival  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artesão de Fogos de Artifício  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artesão de Lâmpadas  </t>
-  </si>
-  <si>
     <t>Vendedor</t>
   </si>
   <si>
-    <t xml:space="preserve">Traficante  </t>
-  </si>
-  <si>
     <t>Voz da Noite</t>
   </si>
   <si>
-    <t xml:space="preserve">Dono da Loja de Magia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domador de Animais  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banqueiro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Zelador </t>
   </si>
   <si>
     <t>Tabelião</t>
   </si>
   <si>
-    <t xml:space="preserve">Barman  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Açougueiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferreiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armeiro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mestre da Caravana </t>
   </si>
   <si>
-    <t xml:space="preserve">Mestre de Escravos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confeiteiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estalajadeiro  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Donzela das Lâminas </t>
   </si>
   <si>
-    <t xml:space="preserve">Treinador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senhor das Terras Distantes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donzela da Noite  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lojista do Mercado Negro </t>
   </si>
   <si>
-    <t xml:space="preserve">Senhor do Castelo Antigo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigia da Guilda dos Lutadores  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escudo de Palmia  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vice-Capitão dos Orcs </t>
   </si>
   <si>
-    <t xml:space="preserve">Anjo Caído  </t>
-  </si>
-  <si>
     <t>Mercador Exótico</t>
   </si>
   <si>
     <t xml:space="preserve">Vigia da Guilda dos Magos </t>
   </si>
   <si>
-    <t xml:space="preserve">Guarda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferreiro Lendário  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martelo de Ferro de Palmia  </t>
+    <t>Maníaco Por Termas</t>
+  </si>
+  <si>
+    <t>Nobre</t>
+  </si>
+  <si>
+    <t>Inspetor Da Fronteira</t>
+  </si>
+  <si>
+    <t>Olhos Sinistros</t>
+  </si>
+  <si>
+    <t>Dragão De Aço</t>
+  </si>
+  <si>
+    <t>Prostituta</t>
+  </si>
+  <si>
+    <t>Dançarina</t>
+  </si>
+  <si>
+    <t>Turista do Festival</t>
+  </si>
+  <si>
+    <t>Civil Do Ciberdomo</t>
+  </si>
+  <si>
+    <t>Prisioneiro</t>
+  </si>
+  <si>
+    <t>Mestre Da Arena</t>
+  </si>
+  <si>
+    <t>Cidadão</t>
+  </si>
+  <si>
+    <t>Aventureiro</t>
+  </si>
+  <si>
+    <t>Boneca Mecânica</t>
+  </si>
+  <si>
+    <t>Amaldiçoado Pelos Deuses</t>
+  </si>
+  <si>
+    <t>Viajante Eterno</t>
+  </si>
+  <si>
+    <t>Bruxa Das Sombras</t>
+  </si>
+  <si>
+    <t>Emissário Da Torre De Marfim</t>
+  </si>
+  <si>
+    <t>Ídolo da Corte Real</t>
+  </si>
+  <si>
+    <t>Mago Aprendiz</t>
+  </si>
+  <si>
+    <t>Comerciante Aprendiz</t>
+  </si>
+  <si>
+    <t>Bardo</t>
+  </si>
+  <si>
+    <t>Fazendeiro</t>
+  </si>
+  <si>
+    <t>Mineiro</t>
+  </si>
+  <si>
+    <t>Magnata</t>
+  </si>
+  <si>
+    <t>Defensor</t>
+  </si>
+  <si>
+    <t>Cavaleiro Dourado</t>
+  </si>
+  <si>
+    <t>Fada Fofa</t>
+  </si>
+  <si>
+    <t>Androide</t>
+  </si>
+  <si>
+    <t>Anjo Negro</t>
+  </si>
+  <si>
+    <t>Exilado</t>
+  </si>
+  <si>
+    <t>Raposa Branca</t>
+  </si>
+  <si>
+    <t>Empregada Raposa</t>
+  </si>
+  <si>
+    <t>Gato Preto</t>
+  </si>
+  <si>
+    <t>Marinheiro</t>
+  </si>
+  <si>
+    <t>Secretária</t>
+  </si>
+  <si>
+    <t>Mulherengo</t>
+  </si>
+  <si>
+    <t>Mascote da Caravana</t>
+  </si>
+  <si>
+    <t>Povo-Raposa</t>
+  </si>
+  <si>
+    <t>Prefeito Interino</t>
+  </si>
+  <si>
+    <t>Aprendiz Sofredor</t>
+  </si>
+  <si>
+    <t>Ladrão</t>
+  </si>
+  <si>
+    <t>Príncipe Minotauro</t>
+  </si>
+  <si>
+    <t>Mestre Pintor</t>
+  </si>
+  <si>
+    <t>Sombra de Palmia</t>
+  </si>
+  <si>
+    <t>Duque de Mysilia</t>
+  </si>
+  <si>
+    <t>Príncipe de Palmia</t>
+  </si>
+  <si>
+    <t>Torturador de Caracóis</t>
+  </si>
+  <si>
+    <t>Sombra de Mysilia</t>
+  </si>
+  <si>
+    <t>Garota Amaldiçoada</t>
+  </si>
+  <si>
+    <t>Dono da Livraria</t>
+  </si>
+  <si>
+    <t>Dono da Loja de Sucata</t>
+  </si>
+  <si>
+    <t>Príncipe de Mysilia</t>
+  </si>
+  <si>
+    <t>Erudito</t>
+  </si>
+  <si>
+    <t>Dono da Loja de Móveis</t>
+  </si>
+  <si>
+    <t>Chefe do Orfanato</t>
+  </si>
+  <si>
+    <t>Mestre da Caravana</t>
+  </si>
+  <si>
+    <t>Dono da Loja Geral</t>
+  </si>
+  <si>
+    <t>Força Especial Palmiana</t>
+  </si>
+  <si>
+    <t>Dono da Loja de Frutas</t>
+  </si>
+  <si>
+    <t>Peixeiro</t>
+  </si>
+  <si>
+    <t>Rei de Palmia</t>
+  </si>
+  <si>
+    <t>Atendente do Cassino</t>
+  </si>
+  <si>
+    <t>Atendente da Guilda</t>
+  </si>
+  <si>
+    <t>General de Mysilia</t>
+  </si>
+  <si>
+    <t>Padeiro</t>
+  </si>
+  <si>
+    <t>Dono da Loja de Mercadorias</t>
+  </si>
+  <si>
+    <t>Mercador de Platina</t>
+  </si>
+  <si>
+    <t>Mercador de Ecopo</t>
+  </si>
+  <si>
+    <t>Mercador</t>
+  </si>
+  <si>
+    <t>Tintureiro</t>
+  </si>
+  <si>
+    <t>Mercador do Festival</t>
+  </si>
+  <si>
+    <t>Artesão de Fogos de Artifício</t>
+  </si>
+  <si>
+    <t>Artesão de Lâmpadas</t>
+  </si>
+  <si>
+    <t>Traficante</t>
+  </si>
+  <si>
+    <t>Dono da Loja de Magia</t>
+  </si>
+  <si>
+    <t>Domador de Animais</t>
+  </si>
+  <si>
+    <t>Banqueiro</t>
+  </si>
+  <si>
+    <t>Barman</t>
+  </si>
+  <si>
+    <t>Açougueiro</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Armeiro</t>
+  </si>
+  <si>
+    <t>Mestre de Escravos</t>
+  </si>
+  <si>
+    <t>Confeiteiro</t>
+  </si>
+  <si>
+    <t>Estalajadeiro</t>
+  </si>
+  <si>
+    <t>Arauto da Contenda</t>
+  </si>
+  <si>
+    <t>Donzela das Bênçãos</t>
+  </si>
+  <si>
+    <t>Treinador</t>
+  </si>
+  <si>
+    <t>Senhor das Terras Distantes</t>
+  </si>
+  <si>
+    <t>Donzela da Noite</t>
+  </si>
+  <si>
+    <t>Pesadelo de Melilith</t>
+  </si>
+  <si>
+    <t>Demônio da Rocha Escaldante</t>
+  </si>
+  <si>
+    <t>Senhor do Castelo Antigo</t>
+  </si>
+  <si>
+    <t>Vigia da Guilda dos Lutadores</t>
+  </si>
+  <si>
+    <t>Escudo de Palmia</t>
+  </si>
+  <si>
+    <t>Anjo Caído</t>
+  </si>
+  <si>
+    <t>Mascote</t>
+  </si>
+  <si>
+    <t>Rajada de Prata</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>Cabelos Vermelhos</t>
+  </si>
+  <si>
+    <t>Ferreiro Lendário</t>
+  </si>
+  <si>
+    <t>Martelo de Ferro de Palmia</t>
   </si>
 </sst>
 </file>
@@ -5624,7 +5606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J402" sqref="J402:J410"/>
+      <selection pane="bottomLeft" activeCell="I406" sqref="I406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5713,7 +5695,7 @@
         <v>1262</v>
       </c>
       <c r="D4" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -5730,7 +5712,7 @@
         <v>1261</v>
       </c>
       <c r="D5" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -5747,7 +5729,7 @@
         <v>1263</v>
       </c>
       <c r="D6" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -5764,7 +5746,7 @@
         <v>1264</v>
       </c>
       <c r="D7" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -5790,7 +5772,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -5816,7 +5798,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -5842,7 +5824,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -5868,7 +5850,7 @@
         <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="K11" t="s">
         <v>32</v>
@@ -5894,7 +5876,7 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
@@ -5937,7 +5919,7 @@
         <v>1261</v>
       </c>
       <c r="D14" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -5954,7 +5936,7 @@
         <v>1269</v>
       </c>
       <c r="D15" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -5971,7 +5953,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -5988,7 +5970,7 @@
         <v>1261</v>
       </c>
       <c r="D17" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -6005,7 +5987,7 @@
         <v>1267</v>
       </c>
       <c r="D18" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -6022,7 +6004,7 @@
         <v>1270</v>
       </c>
       <c r="D19" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -6039,7 +6021,7 @@
         <v>1271</v>
       </c>
       <c r="D20" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -6056,7 +6038,7 @@
         <v>1261</v>
       </c>
       <c r="D21" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
@@ -6073,7 +6055,7 @@
         <v>1271</v>
       </c>
       <c r="D22" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -6099,7 +6081,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="K23" t="s">
         <v>63</v>
@@ -6116,7 +6098,7 @@
         <v>1272</v>
       </c>
       <c r="D24" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="E24" t="s">
         <v>66</v>
@@ -6133,7 +6115,7 @@
         <v>1261</v>
       </c>
       <c r="D25" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="E25" t="s">
         <v>69</v>
@@ -6150,7 +6132,7 @@
         <v>1263</v>
       </c>
       <c r="D26" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -6167,7 +6149,7 @@
         <v>1263</v>
       </c>
       <c r="D27" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -6184,7 +6166,7 @@
         <v>1273</v>
       </c>
       <c r="D28" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="E28" t="s">
         <v>77</v>
@@ -6201,7 +6183,7 @@
         <v>1274</v>
       </c>
       <c r="D29" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="E29" t="s">
         <v>80</v>
@@ -6227,7 +6209,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="K30" t="s">
         <v>83</v>
@@ -6253,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="K31" t="s">
         <v>86</v>
@@ -6270,7 +6252,7 @@
         <v>1275</v>
       </c>
       <c r="D32" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="E32" t="s">
         <v>89</v>
@@ -6287,7 +6269,7 @@
         <v>1261</v>
       </c>
       <c r="D33" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="E33" t="s">
         <v>92</v>
@@ -6304,7 +6286,7 @@
         <v>1276</v>
       </c>
       <c r="D34" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="E34" t="s">
         <v>95</v>
@@ -6321,7 +6303,7 @@
         <v>1261</v>
       </c>
       <c r="D35" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="E35" t="s">
         <v>97</v>
@@ -6347,7 +6329,7 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="K36" t="s">
         <v>99</v>
@@ -6373,7 +6355,7 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="K37" t="s">
         <v>101</v>
@@ -6390,7 +6372,7 @@
         <v>1277</v>
       </c>
       <c r="D38" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="E38" t="s">
         <v>103</v>
@@ -6416,7 +6398,7 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="K39" t="s">
         <v>106</v>
@@ -6442,7 +6424,7 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
       <c r="K40" t="s">
         <v>109</v>
@@ -6459,7 +6441,7 @@
         <v>1261</v>
       </c>
       <c r="D41" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="E41" t="s">
         <v>112</v>
@@ -6485,7 +6467,7 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>1607</v>
+        <v>1631</v>
       </c>
       <c r="K42" t="s">
         <v>115</v>
@@ -6511,7 +6493,7 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>1608</v>
+        <v>1594</v>
       </c>
       <c r="K43" t="s">
         <v>118</v>
@@ -6528,7 +6510,7 @@
         <v>1261</v>
       </c>
       <c r="D44" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="E44" t="s">
         <v>120</v>
@@ -6554,7 +6536,7 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>1609</v>
+        <v>1632</v>
       </c>
       <c r="K45" t="s">
         <v>122</v>
@@ -6571,16 +6553,13 @@
         <v>1261</v>
       </c>
       <c r="D46" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="E46" t="s">
         <v>124</v>
       </c>
       <c r="F46" t="s">
         <v>125</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -6591,7 +6570,7 @@
         <v>1278</v>
       </c>
       <c r="D47" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="E47" t="s">
         <v>127</v>
@@ -6600,7 +6579,7 @@
         <v>128</v>
       </c>
       <c r="J47" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="K47" t="s">
         <v>129</v>
@@ -6617,7 +6596,7 @@
         <v>1261</v>
       </c>
       <c r="D48" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="E48" t="s">
         <v>131</v>
@@ -6634,7 +6613,7 @@
         <v>1279</v>
       </c>
       <c r="D49" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="E49" t="s">
         <v>134</v>
@@ -6651,7 +6630,7 @@
         <v>1279</v>
       </c>
       <c r="D50" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="E50" t="s">
         <v>137</v>
@@ -6668,7 +6647,7 @@
         <v>1280</v>
       </c>
       <c r="D51" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="E51" t="s">
         <v>140</v>
@@ -6685,7 +6664,7 @@
         <v>1280</v>
       </c>
       <c r="D52" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="E52" t="s">
         <v>143</v>
@@ -6711,7 +6690,7 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
       <c r="K53" t="s">
         <v>148</v>
@@ -6737,7 +6716,7 @@
         <v>152</v>
       </c>
       <c r="J54" t="s">
-        <v>1613</v>
+        <v>1634</v>
       </c>
       <c r="K54" t="s">
         <v>153</v>
@@ -6763,7 +6742,7 @@
         <v>157</v>
       </c>
       <c r="J55" t="s">
-        <v>1614</v>
+        <v>1635</v>
       </c>
       <c r="K55" t="s">
         <v>158</v>
@@ -6789,7 +6768,7 @@
         <v>162</v>
       </c>
       <c r="J56" t="s">
-        <v>1615</v>
+        <v>1596</v>
       </c>
       <c r="K56" t="s">
         <v>163</v>
@@ -6806,7 +6785,7 @@
         <v>1261</v>
       </c>
       <c r="D57" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="E57" t="s">
         <v>165</v>
@@ -6823,7 +6802,7 @@
         <v>1261</v>
       </c>
       <c r="D58" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="E58" t="s">
         <v>168</v>
@@ -6849,7 +6828,7 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="K59" t="s">
         <v>170</v>
@@ -6875,7 +6854,7 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="K60" t="s">
         <v>172</v>
@@ -6892,16 +6871,13 @@
         <v>1261</v>
       </c>
       <c r="D61" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="E61" t="s">
         <v>174</v>
       </c>
       <c r="F61" t="s">
         <v>175</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6921,7 +6897,7 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="K62" t="s">
         <v>176</v>
@@ -6938,7 +6914,7 @@
         <v>1261</v>
       </c>
       <c r="D63" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="E63" t="s">
         <v>178</v>
@@ -6955,7 +6931,7 @@
         <v>1283</v>
       </c>
       <c r="D64" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -6972,7 +6948,7 @@
         <v>1283</v>
       </c>
       <c r="D65" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="E65" t="s">
         <v>184</v>
@@ -6989,7 +6965,7 @@
         <v>1283</v>
       </c>
       <c r="D66" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="E66" t="s">
         <v>187</v>
@@ -7006,7 +6982,7 @@
         <v>1284</v>
       </c>
       <c r="D67" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="E67" t="s">
         <v>190</v>
@@ -7023,7 +6999,7 @@
         <v>1261</v>
       </c>
       <c r="D68" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="E68" t="s">
         <v>192</v>
@@ -7040,7 +7016,7 @@
         <v>1261</v>
       </c>
       <c r="D69" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="E69" t="s">
         <v>194</v>
@@ -7066,7 +7042,7 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>1621</v>
+        <v>1638</v>
       </c>
       <c r="K70" t="s">
         <v>197</v>
@@ -7092,7 +7068,7 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="K71" t="s">
         <v>200</v>
@@ -7118,7 +7094,7 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="K72" t="s">
         <v>203</v>
@@ -7135,7 +7111,7 @@
         <v>1261</v>
       </c>
       <c r="D73" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="E73" t="s">
         <v>205</v>
@@ -7152,7 +7128,7 @@
         <v>1261</v>
       </c>
       <c r="D74" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="E74" t="s">
         <v>208</v>
@@ -7169,7 +7145,7 @@
         <v>1286</v>
       </c>
       <c r="D75" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="E75" t="s">
         <v>211</v>
@@ -7186,7 +7162,7 @@
         <v>1261</v>
       </c>
       <c r="D76" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="E76" t="s">
         <v>214</v>
@@ -7203,7 +7179,7 @@
         <v>1287</v>
       </c>
       <c r="D77" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="E77" t="s">
         <v>217</v>
@@ -7220,7 +7196,7 @@
         <v>1261</v>
       </c>
       <c r="D78" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="E78" t="s">
         <v>219</v>
@@ -7246,7 +7222,7 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="K79" t="s">
         <v>221</v>
@@ -7272,7 +7248,7 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>1623</v>
+        <v>1599</v>
       </c>
       <c r="K80" t="s">
         <v>224</v>
@@ -7289,7 +7265,7 @@
         <v>1288</v>
       </c>
       <c r="D81" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="E81" t="s">
         <v>227</v>
@@ -7306,7 +7282,7 @@
         <v>1261</v>
       </c>
       <c r="D82" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="E82" t="s">
         <v>230</v>
@@ -7332,7 +7308,7 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>1624</v>
+        <v>1641</v>
       </c>
       <c r="K83" t="s">
         <v>233</v>
@@ -7358,7 +7334,7 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="K84" t="s">
         <v>235</v>
@@ -7384,7 +7360,7 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="K85" t="s">
         <v>235</v>
@@ -7410,7 +7386,7 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="K86" t="s">
         <v>235</v>
@@ -7436,7 +7412,7 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="K87" t="s">
         <v>235</v>
@@ -7462,7 +7438,7 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="K88" t="s">
         <v>235</v>
@@ -7488,7 +7464,7 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="K89" t="s">
         <v>235</v>
@@ -7514,7 +7490,7 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>1626</v>
+        <v>1600</v>
       </c>
       <c r="K90" t="s">
         <v>243</v>
@@ -7531,7 +7507,7 @@
         <v>1261</v>
       </c>
       <c r="D91" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="E91" t="s">
         <v>245</v>
@@ -7548,7 +7524,7 @@
         <v>1261</v>
       </c>
       <c r="D92" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="E92" t="s">
         <v>248</v>
@@ -7565,7 +7541,7 @@
         <v>1261</v>
       </c>
       <c r="D93" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="E93" t="s">
         <v>250</v>
@@ -7591,7 +7567,7 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="K94" t="s">
         <v>252</v>
@@ -7608,7 +7584,7 @@
         <v>1261</v>
       </c>
       <c r="D95" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="E95" t="s">
         <v>255</v>
@@ -7625,7 +7601,7 @@
         <v>1291</v>
       </c>
       <c r="D96" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="E96" t="s">
         <v>258</v>
@@ -7642,7 +7618,7 @@
         <v>1261</v>
       </c>
       <c r="D97" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="E97" t="s">
         <v>260</v>
@@ -7659,7 +7635,7 @@
         <v>1268</v>
       </c>
       <c r="D98" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="E98" t="s">
         <v>263</v>
@@ -7676,7 +7652,7 @@
         <v>1261</v>
       </c>
       <c r="D99" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="E99" t="s">
         <v>265</v>
@@ -7702,7 +7678,7 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="K100" t="s">
         <v>101</v>
@@ -7719,7 +7695,7 @@
         <v>1261</v>
       </c>
       <c r="D101" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="E101" t="s">
         <v>270</v>
@@ -7736,7 +7712,7 @@
         <v>1261</v>
       </c>
       <c r="D102" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="E102" t="s">
         <v>272</v>
@@ -7762,7 +7738,7 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>1627</v>
+        <v>1643</v>
       </c>
       <c r="K103" t="s">
         <v>275</v>
@@ -7788,7 +7764,7 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>1627</v>
+        <v>1643</v>
       </c>
       <c r="K104" t="s">
         <v>275</v>
@@ -7814,7 +7790,7 @@
         <v>280</v>
       </c>
       <c r="J105" t="s">
-        <v>1628</v>
+        <v>1644</v>
       </c>
       <c r="K105" t="s">
         <v>281</v>
@@ -7840,7 +7816,7 @@
         <v>285</v>
       </c>
       <c r="J106" t="s">
-        <v>1629</v>
+        <v>1645</v>
       </c>
       <c r="K106" t="s">
         <v>286</v>
@@ -7866,7 +7842,7 @@
         <v>290</v>
       </c>
       <c r="J107" t="s">
-        <v>1630</v>
+        <v>1646</v>
       </c>
       <c r="K107" t="s">
         <v>291</v>
@@ -7892,7 +7868,7 @@
         <v>295</v>
       </c>
       <c r="J108" t="s">
-        <v>1631</v>
+        <v>1647</v>
       </c>
       <c r="K108" t="s">
         <v>296</v>
@@ -7918,7 +7894,7 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>1632</v>
+        <v>1648</v>
       </c>
       <c r="K109" t="s">
         <v>299</v>
@@ -7944,7 +7920,7 @@
         <v>303</v>
       </c>
       <c r="J110" t="s">
-        <v>1634</v>
+        <v>1602</v>
       </c>
       <c r="K110" t="s">
         <v>304</v>
@@ -7970,7 +7946,7 @@
         <v>308</v>
       </c>
       <c r="J111" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="K111" t="s">
         <v>309</v>
@@ -7996,7 +7972,7 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>1633</v>
+        <v>1601</v>
       </c>
       <c r="K112" t="s">
         <v>311</v>
@@ -8013,7 +7989,7 @@
         <v>1261</v>
       </c>
       <c r="D113" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="E113" t="s">
         <v>314</v>
@@ -8030,7 +8006,7 @@
         <v>1267</v>
       </c>
       <c r="D114" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="E114" t="s">
         <v>314</v>
@@ -8056,7 +8032,7 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>1636</v>
+        <v>1650</v>
       </c>
       <c r="K115" t="s">
         <v>318</v>
@@ -8082,7 +8058,7 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="K116" t="s">
         <v>321</v>
@@ -8099,7 +8075,7 @@
         <v>1296</v>
       </c>
       <c r="D117" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="E117" t="s">
         <v>324</v>
@@ -8116,7 +8092,7 @@
         <v>1261</v>
       </c>
       <c r="D118" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="E118" t="s">
         <v>68</v>
@@ -8142,7 +8118,7 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>1638</v>
+        <v>1652</v>
       </c>
       <c r="K119" t="s">
         <v>328</v>
@@ -8159,16 +8135,13 @@
         <v>1261</v>
       </c>
       <c r="D120" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="E120" t="s">
         <v>91</v>
       </c>
       <c r="F120" t="s">
         <v>331</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -8188,7 +8161,7 @@
         <v>334</v>
       </c>
       <c r="J121" t="s">
-        <v>1639</v>
+        <v>1603</v>
       </c>
       <c r="K121" t="s">
         <v>335</v>
@@ -8205,7 +8178,7 @@
         <v>1261</v>
       </c>
       <c r="D122" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="E122" t="s">
         <v>337</v>
@@ -8222,7 +8195,7 @@
         <v>1261</v>
       </c>
       <c r="D123" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="E123" t="s">
         <v>340</v>
@@ -8248,7 +8221,7 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>1640</v>
+        <v>1604</v>
       </c>
       <c r="K124" t="s">
         <v>342</v>
@@ -8265,7 +8238,7 @@
         <v>1261</v>
       </c>
       <c r="D125" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="E125" t="s">
         <v>344</v>
@@ -8282,7 +8255,7 @@
         <v>1297</v>
       </c>
       <c r="D126" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="E126" t="s">
         <v>347</v>
@@ -8299,7 +8272,7 @@
         <v>1261</v>
       </c>
       <c r="D127" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="E127" t="s">
         <v>350</v>
@@ -8316,7 +8289,7 @@
         <v>1263</v>
       </c>
       <c r="D128" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="E128" t="s">
         <v>353</v>
@@ -8342,13 +8315,13 @@
         <v>357</v>
       </c>
       <c r="G129" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="I129" t="s">
         <v>358</v>
       </c>
       <c r="J129" t="s">
-        <v>1641</v>
+        <v>1605</v>
       </c>
       <c r="K129" t="s">
         <v>359</v>
@@ -8365,7 +8338,7 @@
         <v>1261</v>
       </c>
       <c r="D130" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="E130" t="s">
         <v>361</v>
@@ -8382,7 +8355,7 @@
         <v>1261</v>
       </c>
       <c r="D131" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="E131" t="s">
         <v>363</v>
@@ -8399,7 +8372,7 @@
         <v>1287</v>
       </c>
       <c r="D132" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="E132" t="s">
         <v>366</v>
@@ -8416,7 +8389,7 @@
         <v>1287</v>
       </c>
       <c r="D133" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="E133" t="s">
         <v>369</v>
@@ -8442,7 +8415,7 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>1642</v>
+        <v>1606</v>
       </c>
       <c r="K134" t="s">
         <v>371</v>
@@ -8459,7 +8432,7 @@
         <v>1261</v>
       </c>
       <c r="D135" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="E135" t="s">
         <v>373</v>
@@ -8476,7 +8449,7 @@
         <v>1268</v>
       </c>
       <c r="D136" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="E136" t="s">
         <v>376</v>
@@ -8493,7 +8466,7 @@
         <v>1285</v>
       </c>
       <c r="D137" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="E137" t="s">
         <v>379</v>
@@ -8510,7 +8483,7 @@
         <v>1285</v>
       </c>
       <c r="D138" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="E138" t="s">
         <v>382</v>
@@ -8527,7 +8500,7 @@
         <v>1285</v>
       </c>
       <c r="D139" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="E139" t="s">
         <v>385</v>
@@ -8544,7 +8517,7 @@
         <v>1261</v>
       </c>
       <c r="D140" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="E140" t="s">
         <v>387</v>
@@ -8570,7 +8543,7 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="K141" t="s">
         <v>389</v>
@@ -8596,7 +8569,7 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="K142" t="s">
         <v>391</v>
@@ -8622,7 +8595,7 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>1645</v>
+        <v>1607</v>
       </c>
       <c r="K143" t="s">
         <v>393</v>
@@ -8639,7 +8612,7 @@
         <v>1261</v>
       </c>
       <c r="D144" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="E144" t="s">
         <v>395</v>
@@ -8656,7 +8629,7 @@
         <v>1261</v>
       </c>
       <c r="D145" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="E145" t="s">
         <v>398</v>
@@ -8673,7 +8646,7 @@
         <v>1299</v>
       </c>
       <c r="D146" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="E146" t="s">
         <v>401</v>
@@ -8690,7 +8663,7 @@
         <v>1261</v>
       </c>
       <c r="D147" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="E147" t="s">
         <v>403</v>
@@ -8707,7 +8680,7 @@
         <v>1299</v>
       </c>
       <c r="D148" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="E148" t="s">
         <v>406</v>
@@ -8733,7 +8706,7 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>1646</v>
+        <v>1655</v>
       </c>
       <c r="K149" t="s">
         <v>409</v>
@@ -8759,7 +8732,7 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>1647</v>
+        <v>1608</v>
       </c>
       <c r="K150" t="s">
         <v>411</v>
@@ -8776,7 +8749,7 @@
         <v>1300</v>
       </c>
       <c r="D151" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="E151" t="s">
         <v>414</v>
@@ -8793,7 +8766,7 @@
         <v>1301</v>
       </c>
       <c r="D152" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="E152" t="s">
         <v>416</v>
@@ -8819,7 +8792,7 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="K153" t="s">
         <v>418</v>
@@ -8845,7 +8818,7 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="K154" t="s">
         <v>421</v>
@@ -8871,7 +8844,7 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="K155" t="s">
         <v>424</v>
@@ -8897,7 +8870,7 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="K156" t="s">
         <v>426</v>
@@ -8923,7 +8896,7 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="K157" t="s">
         <v>429</v>
@@ -8949,7 +8922,7 @@
         <v>433</v>
       </c>
       <c r="J158" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="K158" t="s">
         <v>203</v>
@@ -8975,7 +8948,7 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="K159" t="s">
         <v>203</v>
@@ -9001,7 +8974,7 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="K160" t="s">
         <v>435</v>
@@ -9027,7 +9000,7 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="K161" t="s">
         <v>438</v>
@@ -9053,7 +9026,7 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>1656</v>
+        <v>1609</v>
       </c>
       <c r="K162" t="s">
         <v>440</v>
@@ -9087,7 +9060,7 @@
         <v>1261</v>
       </c>
       <c r="D164" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="E164" t="s">
         <v>446</v>
@@ -9104,7 +9077,7 @@
         <v>1261</v>
       </c>
       <c r="D165" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="E165" t="s">
         <v>448</v>
@@ -9121,7 +9094,7 @@
         <v>1297</v>
       </c>
       <c r="D166" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="E166" t="s">
         <v>451</v>
@@ -9138,7 +9111,7 @@
         <v>1261</v>
       </c>
       <c r="D167" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="E167" t="s">
         <v>454</v>
@@ -9155,7 +9128,7 @@
         <v>1303</v>
       </c>
       <c r="D168" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="E168" t="s">
         <v>457</v>
@@ -9172,7 +9145,7 @@
         <v>1261</v>
       </c>
       <c r="D169" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="E169" t="s">
         <v>460</v>
@@ -9189,7 +9162,7 @@
         <v>1261</v>
       </c>
       <c r="D170" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="E170" t="s">
         <v>463</v>
@@ -9215,7 +9188,7 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="K171" t="s">
         <v>466</v>
@@ -9249,7 +9222,7 @@
         <v>1261</v>
       </c>
       <c r="D173" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="E173" t="s">
         <v>471</v>
@@ -9266,7 +9239,7 @@
         <v>1267</v>
       </c>
       <c r="D174" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="E174" t="s">
         <v>474</v>
@@ -9292,7 +9265,7 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="K175" t="s">
         <v>476</v>
@@ -9318,7 +9291,7 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="K176" t="s">
         <v>478</v>
@@ -9344,7 +9317,7 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="K177" t="s">
         <v>478</v>
@@ -9370,7 +9343,7 @@
         <v>483</v>
       </c>
       <c r="J178" t="s">
-        <v>1662</v>
+        <v>1610</v>
       </c>
       <c r="K178" t="s">
         <v>484</v>
@@ -9396,7 +9369,7 @@
         <v>488</v>
       </c>
       <c r="J179" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="K179" t="s">
         <v>489</v>
@@ -9422,7 +9395,7 @@
         <v>493</v>
       </c>
       <c r="J180" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="K180" t="s">
         <v>494</v>
@@ -9439,7 +9412,7 @@
         <v>1307</v>
       </c>
       <c r="D181" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="E181" t="s">
         <v>497</v>
@@ -9465,7 +9438,7 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="K182" t="s">
         <v>243</v>
@@ -9482,16 +9455,13 @@
         <v>1261</v>
       </c>
       <c r="D183" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="E183" t="s">
         <v>500</v>
       </c>
       <c r="F183" t="s">
         <v>501</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9510,9 +9480,6 @@
       <c r="F184" t="s">
         <v>504</v>
       </c>
-      <c r="J184" t="s">
-        <v>1610</v>
-      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -9531,7 +9498,7 @@
         <v>507</v>
       </c>
       <c r="J185" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="K185" t="s">
         <v>508</v>
@@ -9548,16 +9515,13 @@
         <v>1261</v>
       </c>
       <c r="D186" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="E186" t="s">
         <v>511</v>
       </c>
       <c r="F186" t="s">
         <v>512</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -9568,16 +9532,13 @@
         <v>1296</v>
       </c>
       <c r="D187" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="E187" t="s">
         <v>514</v>
       </c>
       <c r="F187" t="s">
         <v>515</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -9597,7 +9558,7 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>1665</v>
+        <v>1611</v>
       </c>
       <c r="K188" t="s">
         <v>517</v>
@@ -9614,7 +9575,7 @@
         <v>1291</v>
       </c>
       <c r="D189" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="E189" t="s">
         <v>520</v>
@@ -9631,7 +9592,7 @@
         <v>1261</v>
       </c>
       <c r="D190" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="E190" t="s">
         <v>523</v>
@@ -9648,7 +9609,7 @@
         <v>1261</v>
       </c>
       <c r="D191" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="E191" t="s">
         <v>525</v>
@@ -9665,7 +9626,7 @@
         <v>1261</v>
       </c>
       <c r="D192" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="E192" t="s">
         <v>527</v>
@@ -9682,7 +9643,7 @@
         <v>1308</v>
       </c>
       <c r="D193" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="E193" t="s">
         <v>530</v>
@@ -9699,7 +9660,7 @@
         <v>1261</v>
       </c>
       <c r="D194" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="E194" t="s">
         <v>532</v>
@@ -9716,7 +9677,7 @@
         <v>1261</v>
       </c>
       <c r="D195" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="E195" t="s">
         <v>535</v>
@@ -9733,7 +9694,7 @@
         <v>1261</v>
       </c>
       <c r="D196" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="E196" t="s">
         <v>538</v>
@@ -9750,7 +9711,7 @@
         <v>1299</v>
       </c>
       <c r="D197" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="E197" t="s">
         <v>541</v>
@@ -9767,7 +9728,7 @@
         <v>1261</v>
       </c>
       <c r="D198" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="E198" t="s">
         <v>543</v>
@@ -9784,7 +9745,7 @@
         <v>1261</v>
       </c>
       <c r="D199" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="E199" t="s">
         <v>545</v>
@@ -9801,7 +9762,7 @@
         <v>1284</v>
       </c>
       <c r="D200" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="E200" t="s">
         <v>547</v>
@@ -9818,7 +9779,7 @@
         <v>1308</v>
       </c>
       <c r="D201" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="E201" t="s">
         <v>550</v>
@@ -9835,7 +9796,7 @@
         <v>1261</v>
       </c>
       <c r="D202" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="E202" t="s">
         <v>552</v>
@@ -9852,7 +9813,7 @@
         <v>1261</v>
       </c>
       <c r="D203" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="E203" t="s">
         <v>555</v>
@@ -9869,7 +9830,7 @@
         <v>1261</v>
       </c>
       <c r="D204" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="E204" t="s">
         <v>557</v>
@@ -9886,7 +9847,7 @@
         <v>1300</v>
       </c>
       <c r="D205" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
       <c r="E205" t="s">
         <v>560</v>
@@ -9903,7 +9864,7 @@
         <v>1261</v>
       </c>
       <c r="D206" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="E206" t="s">
         <v>563</v>
@@ -9920,7 +9881,7 @@
         <v>1309</v>
       </c>
       <c r="D207" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="E207" t="s">
         <v>566</v>
@@ -9937,7 +9898,7 @@
         <v>1261</v>
       </c>
       <c r="D208" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="E208" t="s">
         <v>568</v>
@@ -9954,7 +9915,7 @@
         <v>1297</v>
       </c>
       <c r="D209" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="E209" t="s">
         <v>571</v>
@@ -9971,7 +9932,7 @@
         <v>1297</v>
       </c>
       <c r="D210" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="E210" t="s">
         <v>574</v>
@@ -9997,7 +9958,7 @@
         <v>578</v>
       </c>
       <c r="J211" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="K211" t="s">
         <v>579</v>
@@ -10023,7 +9984,7 @@
         <v>14</v>
       </c>
       <c r="J212" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="K212" t="s">
         <v>582</v>
@@ -10049,7 +10010,7 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>1668</v>
+        <v>1588</v>
       </c>
       <c r="K213" t="s">
         <v>101</v>
@@ -10075,7 +10036,7 @@
         <v>14</v>
       </c>
       <c r="J214" t="s">
-        <v>1669</v>
+        <v>1612</v>
       </c>
       <c r="K214" t="s">
         <v>586</v>
@@ -10092,7 +10053,7 @@
         <v>1261</v>
       </c>
       <c r="D215" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="E215" t="s">
         <v>589</v>
@@ -10109,7 +10070,7 @@
         <v>1310</v>
       </c>
       <c r="D216" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="E216" t="s">
         <v>592</v>
@@ -10135,7 +10096,7 @@
         <v>596</v>
       </c>
       <c r="J217" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="K217" t="s">
         <v>597</v>
@@ -10161,7 +10122,7 @@
         <v>601</v>
       </c>
       <c r="J218" t="s">
-        <v>1671</v>
+        <v>1613</v>
       </c>
       <c r="K218" t="s">
         <v>602</v>
@@ -10178,7 +10139,7 @@
         <v>1261</v>
       </c>
       <c r="D219" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="E219" t="s">
         <v>604</v>
@@ -10195,7 +10156,7 @@
         <v>1312</v>
       </c>
       <c r="D220" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="E220" t="s">
         <v>607</v>
@@ -10212,7 +10173,7 @@
         <v>1312</v>
       </c>
       <c r="D221" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="E221" t="s">
         <v>610</v>
@@ -10229,7 +10190,7 @@
         <v>1312</v>
       </c>
       <c r="D222" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="E222" t="s">
         <v>613</v>
@@ -10255,7 +10216,7 @@
         <v>617</v>
       </c>
       <c r="J223" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="K223" t="s">
         <v>618</v>
@@ -10272,16 +10233,13 @@
         <v>1261</v>
       </c>
       <c r="D224" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="E224" t="s">
         <v>621</v>
       </c>
       <c r="F224" t="s">
         <v>622</v>
-      </c>
-      <c r="J224" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10292,16 +10250,13 @@
         <v>1304</v>
       </c>
       <c r="D225" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="E225" t="s">
         <v>624</v>
       </c>
       <c r="F225" t="s">
         <v>625</v>
-      </c>
-      <c r="J225" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10321,7 +10276,7 @@
         <v>628</v>
       </c>
       <c r="J226" t="s">
-        <v>1673</v>
+        <v>1614</v>
       </c>
       <c r="K226" t="s">
         <v>629</v>
@@ -10338,7 +10293,7 @@
         <v>1261</v>
       </c>
       <c r="D227" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="E227" t="s">
         <v>631</v>
@@ -10355,7 +10310,7 @@
         <v>1261</v>
       </c>
       <c r="D228" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="E228" t="s">
         <v>633</v>
@@ -10372,7 +10327,7 @@
         <v>1314</v>
       </c>
       <c r="D229" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="E229" t="s">
         <v>636</v>
@@ -10389,7 +10344,7 @@
         <v>1261</v>
       </c>
       <c r="D230" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="E230" t="s">
         <v>639</v>
@@ -10406,7 +10361,7 @@
         <v>1261</v>
       </c>
       <c r="D231" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="E231" t="s">
         <v>641</v>
@@ -10423,7 +10378,7 @@
         <v>1261</v>
       </c>
       <c r="D232" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="E232" t="s">
         <v>644</v>
@@ -10449,7 +10404,7 @@
         <v>648</v>
       </c>
       <c r="J233" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="K233" t="s">
         <v>649</v>
@@ -10466,7 +10421,7 @@
         <v>1261</v>
       </c>
       <c r="D234" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="E234" t="s">
         <v>651</v>
@@ -10483,7 +10438,7 @@
         <v>1261</v>
       </c>
       <c r="D235" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="E235" t="s">
         <v>654</v>
@@ -10500,7 +10455,7 @@
         <v>1303</v>
       </c>
       <c r="D236" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="E236" t="s">
         <v>657</v>
@@ -10517,7 +10472,7 @@
         <v>1303</v>
       </c>
       <c r="D237" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="E237" t="s">
         <v>660</v>
@@ -10534,7 +10489,7 @@
         <v>1303</v>
       </c>
       <c r="D238" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="E238" t="s">
         <v>663</v>
@@ -10551,7 +10506,7 @@
         <v>1303</v>
       </c>
       <c r="D239" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="E239" t="s">
         <v>666</v>
@@ -10577,7 +10532,7 @@
         <v>670</v>
       </c>
       <c r="J240" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="K240" t="s">
         <v>671</v>
@@ -10594,16 +10549,13 @@
         <v>1314</v>
       </c>
       <c r="D241" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="E241" t="s">
         <v>673</v>
       </c>
       <c r="F241" t="s">
         <v>674</v>
-      </c>
-      <c r="J241" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -10622,9 +10574,6 @@
       <c r="F242" t="s">
         <v>677</v>
       </c>
-      <c r="J242" t="s">
-        <v>1610</v>
-      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -10643,7 +10592,7 @@
         <v>680</v>
       </c>
       <c r="J243" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="K243" t="s">
         <v>681</v>
@@ -10660,16 +10609,13 @@
         <v>1261</v>
       </c>
       <c r="D244" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="E244" t="s">
         <v>684</v>
       </c>
       <c r="F244" t="s">
         <v>685</v>
-      </c>
-      <c r="J244" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -10689,7 +10635,7 @@
         <v>14</v>
       </c>
       <c r="J245" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="K245" t="s">
         <v>687</v>
@@ -10715,7 +10661,7 @@
         <v>14</v>
       </c>
       <c r="J246" t="s">
-        <v>1677</v>
+        <v>1615</v>
       </c>
       <c r="K246" t="s">
         <v>690</v>
@@ -10732,7 +10678,7 @@
         <v>1283</v>
       </c>
       <c r="D247" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="E247" t="s">
         <v>692</v>
@@ -10749,7 +10695,7 @@
         <v>1283</v>
       </c>
       <c r="D248" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="E248" t="s">
         <v>695</v>
@@ -10766,7 +10712,7 @@
         <v>1261</v>
       </c>
       <c r="D249" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="E249" t="s">
         <v>697</v>
@@ -10783,7 +10729,7 @@
         <v>1261</v>
       </c>
       <c r="D250" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="E250" t="s">
         <v>700</v>
@@ -10800,7 +10746,7 @@
         <v>1261</v>
       </c>
       <c r="D251" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="E251" t="s">
         <v>703</v>
@@ -10817,7 +10763,7 @@
         <v>1261</v>
       </c>
       <c r="D252" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="E252" t="s">
         <v>705</v>
@@ -10834,7 +10780,7 @@
         <v>1261</v>
       </c>
       <c r="D253" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="E253" t="s">
         <v>708</v>
@@ -10851,7 +10797,7 @@
         <v>1261</v>
       </c>
       <c r="D254" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="E254" t="s">
         <v>711</v>
@@ -10894,16 +10840,13 @@
         <v>1290</v>
       </c>
       <c r="D256" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="E256" t="s">
         <v>719</v>
       </c>
       <c r="F256" t="s">
         <v>720</v>
-      </c>
-      <c r="J256" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -10923,7 +10866,7 @@
         <v>723</v>
       </c>
       <c r="J257" t="s">
-        <v>1339</v>
+        <v>1680</v>
       </c>
       <c r="K257" t="s">
         <v>724</v>
@@ -10940,16 +10883,13 @@
         <v>1261</v>
       </c>
       <c r="D258" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="E258" t="s">
         <v>727</v>
       </c>
       <c r="F258" t="s">
         <v>728</v>
-      </c>
-      <c r="J258" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -10969,7 +10909,7 @@
         <v>14</v>
       </c>
       <c r="J259" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="K259" t="s">
         <v>730</v>
@@ -10986,16 +10926,13 @@
         <v>1261</v>
       </c>
       <c r="D260" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="E260" t="s">
         <v>733</v>
       </c>
       <c r="F260" t="s">
         <v>734</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11015,7 +10952,7 @@
         <v>14</v>
       </c>
       <c r="J261" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="K261" t="s">
         <v>736</v>
@@ -11041,7 +10978,7 @@
         <v>14</v>
       </c>
       <c r="J262" t="s">
-        <v>1682</v>
+        <v>1616</v>
       </c>
       <c r="K262" t="s">
         <v>739</v>
@@ -11058,7 +10995,7 @@
         <v>1261</v>
       </c>
       <c r="D263" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="E263" t="s">
         <v>742</v>
@@ -11075,7 +11012,7 @@
         <v>1261</v>
       </c>
       <c r="D264" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="E264" t="s">
         <v>745</v>
@@ -11092,7 +11029,7 @@
         <v>1261</v>
       </c>
       <c r="D265" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="E265" t="s">
         <v>748</v>
@@ -11109,7 +11046,7 @@
         <v>1261</v>
       </c>
       <c r="D266" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="E266" t="s">
         <v>751</v>
@@ -11126,7 +11063,7 @@
         <v>1261</v>
       </c>
       <c r="D267" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="E267" t="s">
         <v>754</v>
@@ -11186,16 +11123,13 @@
         <v>1261</v>
       </c>
       <c r="D270" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="E270" t="s">
         <v>765</v>
       </c>
       <c r="F270" t="s">
         <v>766</v>
-      </c>
-      <c r="J270" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -11206,16 +11140,13 @@
         <v>1261</v>
       </c>
       <c r="D271" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="E271" t="s">
         <v>767</v>
       </c>
       <c r="F271" t="s">
         <v>768</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -11278,16 +11209,13 @@
         <v>1261</v>
       </c>
       <c r="D274" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="E274" t="s">
         <v>775</v>
       </c>
       <c r="F274" t="s">
         <v>776</v>
-      </c>
-      <c r="J274" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -11385,7 +11313,7 @@
         <v>14</v>
       </c>
       <c r="J278" t="s">
-        <v>1688</v>
+        <v>1617</v>
       </c>
       <c r="K278" t="s">
         <v>788</v>
@@ -11402,7 +11330,7 @@
         <v>1261</v>
       </c>
       <c r="D279" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="E279" t="s">
         <v>790</v>
@@ -11419,7 +11347,7 @@
         <v>1310</v>
       </c>
       <c r="D280" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="E280" t="s">
         <v>793</v>
@@ -11445,7 +11373,7 @@
         <v>797</v>
       </c>
       <c r="J281" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="K281" t="s">
         <v>798</v>
@@ -11471,7 +11399,7 @@
         <v>802</v>
       </c>
       <c r="J282" t="s">
-        <v>1690</v>
+        <v>1618</v>
       </c>
       <c r="K282" t="s">
         <v>803</v>
@@ -11488,7 +11416,7 @@
         <v>1270</v>
       </c>
       <c r="D283" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="E283" t="s">
         <v>806</v>
@@ -11505,7 +11433,7 @@
         <v>1317</v>
       </c>
       <c r="D284" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="E284" t="s">
         <v>809</v>
@@ -11522,7 +11450,7 @@
         <v>1270</v>
       </c>
       <c r="D285" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="E285" t="s">
         <v>812</v>
@@ -11539,7 +11467,7 @@
         <v>1278</v>
       </c>
       <c r="D286" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="E286" t="s">
         <v>812</v>
@@ -11556,7 +11484,7 @@
         <v>1317</v>
       </c>
       <c r="D287" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="E287" t="s">
         <v>816</v>
@@ -11573,7 +11501,7 @@
         <v>1318</v>
       </c>
       <c r="D288" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="E288" t="s">
         <v>819</v>
@@ -11599,7 +11527,7 @@
         <v>14</v>
       </c>
       <c r="J289" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="K289" t="s">
         <v>822</v>
@@ -11625,7 +11553,7 @@
         <v>14</v>
       </c>
       <c r="J290" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="K290" t="s">
         <v>825</v>
@@ -11651,7 +11579,7 @@
         <v>14</v>
       </c>
       <c r="J291" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="K291" t="s">
         <v>828</v>
@@ -11677,7 +11605,7 @@
         <v>832</v>
       </c>
       <c r="J292" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="K292" t="s">
         <v>833</v>
@@ -11703,7 +11631,7 @@
         <v>14</v>
       </c>
       <c r="J293" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="K293" t="s">
         <v>836</v>
@@ -11729,7 +11657,7 @@
         <v>14</v>
       </c>
       <c r="J294" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="K294" t="s">
         <v>839</v>
@@ -11781,7 +11709,7 @@
         <v>14</v>
       </c>
       <c r="J296" t="s">
-        <v>1697</v>
+        <v>1619</v>
       </c>
       <c r="K296" t="s">
         <v>844</v>
@@ -11798,7 +11726,7 @@
         <v>1261</v>
       </c>
       <c r="D297" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="E297" t="s">
         <v>846</v>
@@ -11815,7 +11743,7 @@
         <v>1319</v>
       </c>
       <c r="D298" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="E298" t="s">
         <v>848</v>
@@ -11832,7 +11760,7 @@
         <v>1319</v>
       </c>
       <c r="D299" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="E299" t="s">
         <v>850</v>
@@ -11849,7 +11777,7 @@
         <v>1261</v>
       </c>
       <c r="D300" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="E300" t="s">
         <v>852</v>
@@ -11866,7 +11794,7 @@
         <v>1268</v>
       </c>
       <c r="D301" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="E301" t="s">
         <v>855</v>
@@ -11883,7 +11811,7 @@
         <v>1261</v>
       </c>
       <c r="D302" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="E302" t="s">
         <v>858</v>
@@ -11900,7 +11828,7 @@
         <v>1320</v>
       </c>
       <c r="D303" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="E303" t="s">
         <v>861</v>
@@ -11917,7 +11845,7 @@
         <v>1261</v>
       </c>
       <c r="D304" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="E304" t="s">
         <v>864</v>
@@ -11934,7 +11862,7 @@
         <v>1321</v>
       </c>
       <c r="D305" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E305" t="s">
         <v>867</v>
@@ -11951,7 +11879,7 @@
         <v>1321</v>
       </c>
       <c r="D306" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="E306" t="s">
         <v>870</v>
@@ -11968,7 +11896,7 @@
         <v>1261</v>
       </c>
       <c r="D307" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="E307" t="s">
         <v>873</v>
@@ -11994,7 +11922,7 @@
         <v>877</v>
       </c>
       <c r="J308" t="s">
-        <v>1340</v>
+        <v>1695</v>
       </c>
       <c r="K308" t="s">
         <v>878</v>
@@ -12020,7 +11948,7 @@
         <v>14</v>
       </c>
       <c r="J309" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="K309" t="s">
         <v>881</v>
@@ -12046,7 +11974,7 @@
         <v>14</v>
       </c>
       <c r="J310" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="K310" t="s">
         <v>884</v>
@@ -12072,7 +12000,7 @@
         <v>14</v>
       </c>
       <c r="J311" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="K311" t="s">
         <v>839</v>
@@ -12098,7 +12026,7 @@
         <v>14</v>
       </c>
       <c r="J312" t="s">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="K312" t="s">
         <v>839</v>
@@ -12115,7 +12043,7 @@
         <v>1296</v>
       </c>
       <c r="D313" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="E313" t="s">
         <v>889</v>
@@ -12132,7 +12060,7 @@
         <v>1296</v>
       </c>
       <c r="D314" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="E314" t="s">
         <v>892</v>
@@ -12149,7 +12077,7 @@
         <v>1321</v>
       </c>
       <c r="D315" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="E315" t="s">
         <v>895</v>
@@ -12166,7 +12094,7 @@
         <v>1321</v>
       </c>
       <c r="D316" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="E316" t="s">
         <v>898</v>
@@ -12183,7 +12111,7 @@
         <v>1322</v>
       </c>
       <c r="D317" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="E317" t="s">
         <v>900</v>
@@ -12200,7 +12128,7 @@
         <v>1261</v>
       </c>
       <c r="D318" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="E318" t="s">
         <v>903</v>
@@ -12217,7 +12145,7 @@
         <v>1261</v>
       </c>
       <c r="D319" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="E319" t="s">
         <v>905</v>
@@ -12234,7 +12162,7 @@
         <v>1290</v>
       </c>
       <c r="D320" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="E320" t="s">
         <v>908</v>
@@ -12251,7 +12179,7 @@
         <v>1261</v>
       </c>
       <c r="D321" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="E321" t="s">
         <v>911</v>
@@ -12268,7 +12196,7 @@
         <v>1261</v>
       </c>
       <c r="D322" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="E322" t="s">
         <v>913</v>
@@ -12294,7 +12222,7 @@
         <v>14</v>
       </c>
       <c r="J323" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="K323" t="s">
         <v>916</v>
@@ -12320,7 +12248,7 @@
         <v>14</v>
       </c>
       <c r="J324" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="K324" t="s">
         <v>919</v>
@@ -12346,7 +12274,7 @@
         <v>14</v>
       </c>
       <c r="J325" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="K325" t="s">
         <v>883</v>
@@ -12372,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="J326" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="K326" t="s">
         <v>883</v>
@@ -12398,7 +12326,7 @@
         <v>14</v>
       </c>
       <c r="J327" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="K327" t="s">
         <v>798</v>
@@ -12424,7 +12352,7 @@
         <v>14</v>
       </c>
       <c r="J328" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="K328" t="s">
         <v>926</v>
@@ -12450,7 +12378,7 @@
         <v>14</v>
       </c>
       <c r="J329" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="K329" t="s">
         <v>929</v>
@@ -12476,7 +12404,7 @@
         <v>14</v>
       </c>
       <c r="J330" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K330" t="s">
         <v>932</v>
@@ -12502,7 +12430,7 @@
         <v>14</v>
       </c>
       <c r="J331" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="K331" t="s">
         <v>935</v>
@@ -12528,7 +12456,7 @@
         <v>14</v>
       </c>
       <c r="J332" t="s">
-        <v>1708</v>
+        <v>1621</v>
       </c>
       <c r="K332" t="s">
         <v>938</v>
@@ -12545,7 +12473,7 @@
         <v>1261</v>
       </c>
       <c r="D333" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="E333" t="s">
         <v>940</v>
@@ -12571,7 +12499,7 @@
         <v>14</v>
       </c>
       <c r="J334" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="K334" t="s">
         <v>943</v>
@@ -12597,7 +12525,7 @@
         <v>14</v>
       </c>
       <c r="J335" t="s">
-        <v>1710</v>
+        <v>1622</v>
       </c>
       <c r="K335" t="s">
         <v>946</v>
@@ -12614,7 +12542,7 @@
         <v>1261</v>
       </c>
       <c r="D336" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="E336" t="s">
         <v>949</v>
@@ -12631,7 +12559,7 @@
         <v>1261</v>
       </c>
       <c r="D337" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="E337" t="s">
         <v>951</v>
@@ -12657,7 +12585,7 @@
         <v>14</v>
       </c>
       <c r="J338" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="K338" t="s">
         <v>954</v>
@@ -12683,7 +12611,7 @@
         <v>14</v>
       </c>
       <c r="J339" t="s">
-        <v>1715</v>
+        <v>1624</v>
       </c>
       <c r="K339" t="s">
         <v>957</v>
@@ -12709,7 +12637,7 @@
         <v>14</v>
       </c>
       <c r="J340" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="K340" t="s">
         <v>960</v>
@@ -12735,7 +12663,7 @@
         <v>14</v>
       </c>
       <c r="J341" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="K341" t="s">
         <v>962</v>
@@ -12761,7 +12689,7 @@
         <v>14</v>
       </c>
       <c r="J342" t="s">
-        <v>1714</v>
+        <v>1623</v>
       </c>
       <c r="K342" t="s">
         <v>964</v>
@@ -12778,7 +12706,7 @@
         <v>1261</v>
       </c>
       <c r="D343" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="E343" t="s">
         <v>967</v>
@@ -12795,7 +12723,7 @@
         <v>1261</v>
       </c>
       <c r="D344" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="E344" t="s">
         <v>969</v>
@@ -12812,7 +12740,7 @@
         <v>1261</v>
       </c>
       <c r="D345" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="E345" t="s">
         <v>972</v>
@@ -12838,7 +12766,7 @@
         <v>14</v>
       </c>
       <c r="J346" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="K346" t="s">
         <v>974</v>
@@ -12864,7 +12792,7 @@
         <v>14</v>
       </c>
       <c r="J347" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="K347" t="s">
         <v>977</v>
@@ -12890,7 +12818,7 @@
         <v>14</v>
       </c>
       <c r="J348" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="K348" t="s">
         <v>980</v>
@@ -12916,7 +12844,7 @@
         <v>14</v>
       </c>
       <c r="J349" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="K349" t="s">
         <v>983</v>
@@ -12942,7 +12870,7 @@
         <v>987</v>
       </c>
       <c r="J350" t="s">
-        <v>1720</v>
+        <v>1625</v>
       </c>
       <c r="K350" t="s">
         <v>786</v>
@@ -12959,7 +12887,7 @@
         <v>1325</v>
       </c>
       <c r="D351" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E351" t="s">
         <v>989</v>
@@ -12976,7 +12904,7 @@
         <v>1261</v>
       </c>
       <c r="D352" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="E352" t="s">
         <v>992</v>
@@ -12993,7 +12921,7 @@
         <v>1326</v>
       </c>
       <c r="D353" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="E353" t="s">
         <v>995</v>
@@ -13010,7 +12938,7 @@
         <v>1268</v>
       </c>
       <c r="D354" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="E354" t="s">
         <v>997</v>
@@ -13027,7 +12955,7 @@
         <v>1326</v>
       </c>
       <c r="D355" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="E355" t="s">
         <v>1000</v>
@@ -13044,7 +12972,7 @@
         <v>1261</v>
       </c>
       <c r="D356" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="E356" t="s">
         <v>1002</v>
@@ -13061,7 +12989,7 @@
         <v>1327</v>
       </c>
       <c r="D357" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="E357" t="s">
         <v>1005</v>
@@ -13087,7 +13015,7 @@
         <v>1009</v>
       </c>
       <c r="J358" t="s">
-        <v>1341</v>
+        <v>1432</v>
       </c>
       <c r="K358" t="s">
         <v>1010</v>
@@ -13113,7 +13041,7 @@
         <v>14</v>
       </c>
       <c r="J359" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="K359" t="s">
         <v>1013</v>
@@ -13139,7 +13067,7 @@
         <v>14</v>
       </c>
       <c r="J360" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="K360" t="s">
         <v>1016</v>
@@ -13165,7 +13093,7 @@
         <v>14</v>
       </c>
       <c r="J361" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="K361" t="s">
         <v>1019</v>
@@ -13191,7 +13119,7 @@
         <v>14</v>
       </c>
       <c r="J362" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="K362" t="s">
         <v>1019</v>
@@ -13217,7 +13145,7 @@
         <v>1024</v>
       </c>
       <c r="J363" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="K363" t="s">
         <v>1019</v>
@@ -13243,7 +13171,7 @@
         <v>1027</v>
       </c>
       <c r="J364" t="s">
-        <v>1342</v>
+        <v>1716</v>
       </c>
       <c r="K364" t="s">
         <v>1028</v>
@@ -13269,7 +13197,7 @@
         <v>1032</v>
       </c>
       <c r="J365" t="s">
-        <v>1343</v>
+        <v>1717</v>
       </c>
       <c r="K365" t="s">
         <v>1033</v>
@@ -13295,7 +13223,7 @@
         <v>1037</v>
       </c>
       <c r="J366" t="s">
-        <v>1724</v>
+        <v>1626</v>
       </c>
       <c r="K366" t="s">
         <v>1038</v>
@@ -13312,7 +13240,7 @@
         <v>1325</v>
       </c>
       <c r="D367" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="E367" t="s">
         <v>1041</v>
@@ -13329,7 +13257,7 @@
         <v>1330</v>
       </c>
       <c r="D368" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="E368" t="s">
         <v>1044</v>
@@ -13346,7 +13274,7 @@
         <v>1306</v>
       </c>
       <c r="D369" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="E369" t="s">
         <v>1044</v>
@@ -13372,7 +13300,7 @@
         <v>1049</v>
       </c>
       <c r="J370" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="K370" t="s">
         <v>1050</v>
@@ -13389,7 +13317,7 @@
         <v>1331</v>
       </c>
       <c r="D371" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
       <c r="E371" t="s">
         <v>1053</v>
@@ -13406,7 +13334,7 @@
         <v>1331</v>
       </c>
       <c r="D372" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="E372" t="s">
         <v>1055</v>
@@ -13415,7 +13343,7 @@
         <v>1056</v>
       </c>
       <c r="J372" t="s">
-        <v>1543</v>
+        <v>1561</v>
       </c>
       <c r="K372" t="s">
         <v>1053</v>
@@ -13441,7 +13369,7 @@
         <v>14</v>
       </c>
       <c r="J373" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="K373" t="s">
         <v>1057</v>
@@ -13467,7 +13395,7 @@
         <v>1061</v>
       </c>
       <c r="J374" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="K374" t="s">
         <v>1062</v>
@@ -13493,7 +13421,7 @@
         <v>1066</v>
       </c>
       <c r="J375" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="K375" t="s">
         <v>1067</v>
@@ -13519,7 +13447,7 @@
         <v>14</v>
       </c>
       <c r="J376" t="s">
-        <v>1728</v>
+        <v>1627</v>
       </c>
       <c r="K376" t="s">
         <v>1070</v>
@@ -13536,7 +13464,7 @@
         <v>1332</v>
       </c>
       <c r="D377" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="E377" t="s">
         <v>1073</v>
@@ -13562,7 +13490,7 @@
         <v>1077</v>
       </c>
       <c r="J378" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="K378" t="s">
         <v>1010</v>
@@ -13596,7 +13524,7 @@
         <v>1289</v>
       </c>
       <c r="D380" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="E380" t="s">
         <v>1082</v>
@@ -13605,7 +13533,7 @@
         <v>1083</v>
       </c>
       <c r="J380" t="s">
-        <v>1344</v>
+        <v>1721</v>
       </c>
       <c r="K380" t="s">
         <v>1084</v>
@@ -13631,7 +13559,7 @@
         <v>1088</v>
       </c>
       <c r="J381" t="s">
-        <v>1345</v>
+        <v>1722</v>
       </c>
       <c r="K381" t="s">
         <v>1089</v>
@@ -13657,7 +13585,7 @@
         <v>1093</v>
       </c>
       <c r="J382" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="K382" t="s">
         <v>1094</v>
@@ -13683,10 +13611,10 @@
         <v>1098</v>
       </c>
       <c r="J383" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="K383" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="L383" t="s">
         <v>1099</v>
@@ -13709,7 +13637,7 @@
         <v>1102</v>
       </c>
       <c r="J384" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="K384" t="s">
         <v>1103</v>
@@ -13735,7 +13663,7 @@
         <v>1107</v>
       </c>
       <c r="J385" t="s">
-        <v>1732</v>
+        <v>1628</v>
       </c>
       <c r="K385" t="s">
         <v>1108</v>
@@ -13752,7 +13680,7 @@
         <v>1312</v>
       </c>
       <c r="D386" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="E386" t="s">
         <v>1111</v>
@@ -13778,7 +13706,7 @@
         <v>1115</v>
       </c>
       <c r="J387" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="K387" t="s">
         <v>1116</v>
@@ -13795,7 +13723,7 @@
         <v>1335</v>
       </c>
       <c r="D388" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="E388" t="s">
         <v>1119</v>
@@ -13804,7 +13732,7 @@
         <v>1120</v>
       </c>
       <c r="J388" t="s">
-        <v>1338</v>
+        <v>14</v>
       </c>
       <c r="K388" t="s">
         <v>14</v>
@@ -13821,16 +13749,13 @@
         <v>1274</v>
       </c>
       <c r="D389" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="E389" t="s">
         <v>1121</v>
       </c>
       <c r="F389" t="s">
         <v>1122</v>
-      </c>
-      <c r="J389" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
@@ -13850,7 +13775,7 @@
         <v>14</v>
       </c>
       <c r="J390" t="s">
-        <v>1734</v>
+        <v>1629</v>
       </c>
       <c r="K390" t="s">
         <v>1124</v>
@@ -13867,7 +13792,7 @@
         <v>1261</v>
       </c>
       <c r="D391" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="E391" t="s">
         <v>1126</v>
@@ -13884,7 +13809,7 @@
         <v>1310</v>
       </c>
       <c r="D392" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="E392" t="s">
         <v>1129</v>
@@ -13901,7 +13826,7 @@
         <v>1320</v>
       </c>
       <c r="D393" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="E393" t="s">
         <v>1131</v>
@@ -13918,7 +13843,7 @@
         <v>1320</v>
       </c>
       <c r="D394" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="E394" t="s">
         <v>1134</v>
@@ -13944,7 +13869,7 @@
         <v>14</v>
       </c>
       <c r="J395" t="s">
-        <v>1346</v>
+        <v>1727</v>
       </c>
       <c r="K395" t="s">
         <v>1137</v>
@@ -13970,7 +13895,7 @@
         <v>1141</v>
       </c>
       <c r="J396" t="s">
-        <v>1347</v>
+        <v>1728</v>
       </c>
       <c r="K396" t="s">
         <v>1142</v>
@@ -13996,7 +13921,7 @@
         <v>1146</v>
       </c>
       <c r="J397" t="s">
-        <v>1735</v>
+        <v>1630</v>
       </c>
       <c r="K397" t="s">
         <v>1147</v>
@@ -14013,7 +13938,7 @@
         <v>1336</v>
       </c>
       <c r="D398" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="E398" t="s">
         <v>1150</v>
@@ -14030,7 +13955,7 @@
         <v>1261</v>
       </c>
       <c r="D399" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="E399" t="s">
         <v>1152</v>
@@ -14047,7 +13972,7 @@
         <v>1261</v>
       </c>
       <c r="D400" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="E400" t="s">
         <v>1154</v>
@@ -14064,7 +13989,7 @@
         <v>1311</v>
       </c>
       <c r="D401" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
       <c r="E401" t="s">
         <v>1156</v>
@@ -14090,7 +14015,7 @@
         <v>14</v>
       </c>
       <c r="J402" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="K402" t="s">
         <v>1158</v>
@@ -14116,7 +14041,7 @@
         <v>14</v>
       </c>
       <c r="J403" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="K403" t="s">
         <v>1161</v>
@@ -14142,7 +14067,7 @@
         <v>14</v>
       </c>
       <c r="J404" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="K404" t="s">
         <v>1158</v>
@@ -14168,7 +14093,7 @@
         <v>14</v>
       </c>
       <c r="J405" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="K405" t="s">
         <v>1158</v>
@@ -14194,7 +14119,7 @@
         <v>1167</v>
       </c>
       <c r="J406" t="s">
-        <v>1348</v>
+        <v>1731</v>
       </c>
       <c r="K406" t="s">
         <v>1168</v>
@@ -14220,7 +14145,7 @@
         <v>1172</v>
       </c>
       <c r="J407" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="K407" t="s">
         <v>1173</v>
@@ -14246,7 +14171,7 @@
         <v>1177</v>
       </c>
       <c r="J408" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="K408" t="s">
         <v>1173</v>
@@ -14272,7 +14197,7 @@
         <v>1180</v>
       </c>
       <c r="J409" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="K409" t="s">
         <v>1181</v>
@@ -14298,7 +14223,7 @@
         <v>1185</v>
       </c>
       <c r="J410" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="K410" t="s">
         <v>1010</v>
@@ -14341,7 +14266,7 @@
         <v>1191</v>
       </c>
       <c r="J412" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="K412" t="s">
         <v>1192</v>
@@ -14358,7 +14283,7 @@
         <v>1275</v>
       </c>
       <c r="D413" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
       <c r="E413" t="s">
         <v>1194</v>
@@ -14375,7 +14300,7 @@
         <v>1261</v>
       </c>
       <c r="D414" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="E414" t="s">
         <v>1197</v>
@@ -14392,7 +14317,7 @@
         <v>1261</v>
       </c>
       <c r="D415" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="E415" t="s">
         <v>1199</v>
@@ -14409,7 +14334,7 @@
         <v>1261</v>
       </c>
       <c r="D416" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
       <c r="E416" t="s">
         <v>1202</v>
@@ -14435,7 +14360,7 @@
         <v>1206</v>
       </c>
       <c r="J417" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
       <c r="K417" t="s">
         <v>1207</v>
@@ -14452,7 +14377,7 @@
         <v>1314</v>
       </c>
       <c r="D418" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="E418" t="s">
         <v>1210</v>
@@ -14469,7 +14394,7 @@
         <v>1313</v>
       </c>
       <c r="D419" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="E419" t="s">
         <v>1213</v>
@@ -14478,7 +14403,7 @@
         <v>1214</v>
       </c>
       <c r="J419" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="K419" t="s">
         <v>1215</v>
@@ -14495,7 +14420,7 @@
         <v>1289</v>
       </c>
       <c r="D420" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="E420" t="s">
         <v>1218</v>
@@ -14504,7 +14429,7 @@
         <v>1219</v>
       </c>
       <c r="J420" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="K420" t="s">
         <v>1220</v>
@@ -14530,7 +14455,7 @@
         <v>1224</v>
       </c>
       <c r="J421" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="K421" t="s">
         <v>1225</v>
@@ -14556,7 +14481,7 @@
         <v>1229</v>
       </c>
       <c r="J422" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="K422" t="s">
         <v>1230</v>
@@ -14582,7 +14507,7 @@
         <v>1234</v>
       </c>
       <c r="J423" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="K423" t="s">
         <v>1235</v>
@@ -14608,7 +14533,7 @@
         <v>1239</v>
       </c>
       <c r="J424" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="K424" t="s">
         <v>1240</v>
@@ -14634,7 +14559,7 @@
         <v>1244</v>
       </c>
       <c r="J425" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="K425" t="s">
         <v>1245</v>
@@ -14660,7 +14585,7 @@
         <v>1249</v>
       </c>
       <c r="J426" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="L426" t="s">
         <v>1250</v>
@@ -14683,7 +14608,7 @@
         <v>1253</v>
       </c>
       <c r="J427" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="K427" t="s">
         <v>1254</v>
@@ -14709,7 +14634,7 @@
         <v>1258</v>
       </c>
       <c r="J428" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="K428" t="s">
         <v>1259</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC499D0-5D56-4604-B34E-400413FBA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57632918-E807-49E0-9DC0-6D7EBA512615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="1095" windowWidth="7815" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1819">
   <si>
     <t>id</t>
   </si>
@@ -5225,6 +5225,261 @@
   </si>
   <si>
     <t>Martelo de Ferro de Palmia</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>EA 23.114</t>
+  </si>
+  <si>
+    <t>赤ちゃん</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>EA 23.119</t>
+  </si>
+  <si>
+    <t>鮫</t>
+  </si>
+  <si>
+    <t>fish_army</t>
+  </si>
+  <si>
+    <t>small fish</t>
+  </si>
+  <si>
+    <t>小魚</t>
+  </si>
+  <si>
+    <t>fish_kuma</t>
+  </si>
+  <si>
+    <t>crownfish</t>
+  </si>
+  <si>
+    <t>クマノミ</t>
+  </si>
+  <si>
+    <t>fish_coral</t>
+  </si>
+  <si>
+    <t>coralfish</t>
+  </si>
+  <si>
+    <t>コーラルフィッシュ</t>
+  </si>
+  <si>
+    <t>fish_xida</t>
+  </si>
+  <si>
+    <t>xidazoon</t>
+  </si>
+  <si>
+    <t>シダズーン</t>
+  </si>
+  <si>
+    <t>fish_angel</t>
+  </si>
+  <si>
+    <t>angelfish</t>
+  </si>
+  <si>
+    <t>エンゼルフィッシュ</t>
+  </si>
+  <si>
+    <t>fish_seabass</t>
+  </si>
+  <si>
+    <t>sea bass</t>
+  </si>
+  <si>
+    <t>シーバス</t>
+  </si>
+  <si>
+    <t>fish_ piranha</t>
+  </si>
+  <si>
+    <t>piranha</t>
+  </si>
+  <si>
+    <t>ピラニア</t>
+  </si>
+  <si>
+    <t>balloonfish</t>
+  </si>
+  <si>
+    <t>EA 23.116</t>
+  </si>
+  <si>
+    <t>ハリセンボン</t>
+  </si>
+  <si>
+    <t>tako</t>
+  </si>
+  <si>
+    <t>EA 23.117</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>オクトパス</t>
+  </si>
+  <si>
+    <t>ika</t>
+  </si>
+  <si>
+    <t>baby kraken</t>
+  </si>
+  <si>
+    <t>クラーケンの赤子</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>クラゲ</t>
+  </si>
+  <si>
+    <t>tacchan</t>
+  </si>
+  <si>
+    <t>EA 23.115</t>
+  </si>
+  <si>
+    <t>seahorse</t>
+  </si>
+  <si>
+    <t>タッキー</t>
+  </si>
+  <si>
+    <t>snail_sea</t>
+  </si>
+  <si>
+    <t>sea snail</t>
+  </si>
+  <si>
+    <t>海かたつむり</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>EA 23.112</t>
+  </si>
+  <si>
+    <t>亀</t>
+  </si>
+  <si>
+    <t>sea_anemone</t>
+  </si>
+  <si>
+    <t>EA 23.113</t>
+  </si>
+  <si>
+    <t>sea anemone</t>
+  </si>
+  <si>
+    <t>海のアネモネ</t>
+  </si>
+  <si>
+    <t>dragon_leafy</t>
+  </si>
+  <si>
+    <t>leafy sea #ele3 dragon</t>
+  </si>
+  <si>
+    <t>リーフィーシー#ele3ドラゴン</t>
+  </si>
+  <si>
+    <t>quickling</t>
+  </si>
+  <si>
+    <t>クイックリング</t>
+  </si>
+  <si>
+    <t>quickling_archer</t>
+  </si>
+  <si>
+    <t>quickling archer</t>
+  </si>
+  <si>
+    <t>クイックリングの弓使い</t>
+  </si>
+  <si>
+    <t>gomachan</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>アザラシ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubarão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixinho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixe-Coroa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixe-Coral  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xidazoon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixe-Anjo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robalo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piranha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixe-Balão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polvo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bebê Kraken  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água-Viva  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavalo-Marinho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caramujo-Marinho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tartaruga  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anêmona-do-Mar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragão-Marinho Folhado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velozinho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arqueiro Velozinho  </t>
+  </si>
+  <si>
+    <t>Foca</t>
+  </si>
+  <si>
+    <t>Bebê</t>
   </si>
 </sst>
 </file>
@@ -5602,11 +5857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I406" sqref="I406"/>
+      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J429" sqref="J429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14643,6 +14898,372 @@
         <v>1260</v>
       </c>
     </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D429" t="s">
+        <v>14</v>
+      </c>
+      <c r="E429" t="s">
+        <v>14</v>
+      </c>
+      <c r="F429" t="s">
+        <v>14</v>
+      </c>
+      <c r="J429" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K429" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L429" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F434" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F439" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F448" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1797</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
